--- a/DataExtraction/Extracted Data/Round 2/extraction_Q2_Q3_2.0.0.xlsx
+++ b/DataExtraction/Extracted Data/Round 2/extraction_Q2_Q3_2.0.0.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trannguyen/Documents/Projects/BC-IoT_SLR/BC_IoT_SLR/DataExtraction/Extracted Data/Round 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B446DF-B714-6D48-AD6F-C976F28305E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2890AD5-FC3B-1844-A505-E8782874CEBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="994" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="994" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ2.1" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="76" r:id="rId7"/>
-    <pivotCache cacheId="100" r:id="rId8"/>
+    <pivotCache cacheId="8" r:id="rId7"/>
+    <pivotCache cacheId="9" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -6696,7 +6696,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E22DE193-0180-7A4C-90A9-5D7BE8497014}" name="PivotTable1" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E22DE193-0180-7A4C-90A9-5D7BE8497014}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6850,7 +6850,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B166BF28-C83D-2F48-B64D-D42374E0E0E3}" name="PivotTable3" cacheId="100" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B166BF28-C83D-2F48-B64D-D42374E0E0E3}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -10285,11 +10285,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319240B9-4870-494A-A276-E36B79402EDE}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="topRight" activeCell="J1" sqref="A1:K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10340,7 +10341,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -10375,7 +10376,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -10410,7 +10411,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -10445,7 +10446,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -10480,7 +10481,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -10515,7 +10516,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -10550,7 +10551,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -10585,7 +10586,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -10620,7 +10621,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -10655,7 +10656,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -10690,7 +10691,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -10725,7 +10726,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -10760,7 +10761,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -10795,7 +10796,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -10830,7 +10831,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -10865,7 +10866,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -10900,7 +10901,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -10935,7 +10936,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -10970,7 +10971,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -11005,7 +11006,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -11040,7 +11041,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -11075,7 +11076,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
@@ -11110,7 +11111,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -11145,7 +11146,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -11180,7 +11181,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -11215,7 +11216,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
@@ -11250,7 +11251,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
@@ -11285,7 +11286,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
@@ -11320,7 +11321,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
@@ -11355,7 +11356,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
@@ -11390,7 +11391,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
         <v>95</v>
       </c>
@@ -11425,7 +11426,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -11460,7 +11461,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -11495,7 +11496,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -11530,7 +11531,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
@@ -11565,7 +11566,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -11600,7 +11601,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -11635,7 +11636,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>116</v>
       </c>
@@ -11670,7 +11671,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>119</v>
       </c>
@@ -11705,7 +11706,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
@@ -11740,7 +11741,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -11775,7 +11776,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -11810,7 +11811,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>130</v>
       </c>
@@ -11845,7 +11846,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
@@ -11880,7 +11881,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>136</v>
       </c>
@@ -11915,7 +11916,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>139</v>
       </c>
@@ -11950,7 +11951,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>142</v>
       </c>
@@ -11985,7 +11986,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>145</v>
       </c>
@@ -12020,7 +12021,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
@@ -12055,7 +12056,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>150</v>
       </c>
@@ -12090,7 +12091,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>152</v>
       </c>
@@ -12125,7 +12126,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>154</v>
       </c>
@@ -12160,7 +12161,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
@@ -12195,7 +12196,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>160</v>
       </c>
@@ -12230,7 +12231,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>163</v>
       </c>
@@ -12265,7 +12266,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
@@ -12300,7 +12301,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>167</v>
       </c>
@@ -12335,7 +12336,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>169</v>
       </c>
@@ -12370,7 +12371,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>172</v>
       </c>
@@ -12405,7 +12406,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>175</v>
       </c>
@@ -12440,7 +12441,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>178</v>
       </c>
@@ -12475,7 +12476,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>180</v>
       </c>
@@ -12510,7 +12511,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>183</v>
       </c>
@@ -12545,7 +12546,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>186</v>
       </c>
@@ -12580,7 +12581,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>188</v>
       </c>
@@ -12615,7 +12616,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>191</v>
       </c>
@@ -12685,7 +12686,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>197</v>
       </c>
@@ -12720,7 +12721,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>200</v>
       </c>
@@ -12755,7 +12756,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>202</v>
       </c>
@@ -12790,7 +12791,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>205</v>
       </c>
@@ -12825,7 +12826,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>207</v>
       </c>
@@ -12860,7 +12861,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>209</v>
       </c>
@@ -12895,7 +12896,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>212</v>
       </c>
@@ -12930,7 +12931,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>215</v>
       </c>
@@ -12965,7 +12966,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>219</v>
       </c>
@@ -13070,7 +13071,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>227</v>
       </c>
@@ -13105,7 +13106,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>230</v>
       </c>
@@ -13140,7 +13141,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>232</v>
       </c>
@@ -13175,7 +13176,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>234</v>
       </c>
@@ -13210,7 +13211,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="65" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="65" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
         <v>386</v>
       </c>
@@ -13245,7 +13246,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>389</v>
       </c>
@@ -13280,7 +13281,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>392</v>
       </c>
@@ -13312,7 +13313,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>395</v>
       </c>
@@ -13344,7 +13345,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>398</v>
       </c>
@@ -13408,7 +13409,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>404</v>
       </c>
@@ -13440,7 +13441,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
         <v>407</v>
       </c>
@@ -13472,7 +13473,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
         <v>410</v>
       </c>
@@ -13504,7 +13505,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>413</v>
       </c>
@@ -13536,7 +13537,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>416</v>
       </c>
@@ -13568,7 +13569,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
         <v>419</v>
       </c>
@@ -13600,7 +13601,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
         <v>422</v>
       </c>
@@ -13632,7 +13633,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>425</v>
       </c>
@@ -13664,7 +13665,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>428</v>
       </c>
@@ -13696,7 +13697,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>431</v>
       </c>
@@ -13728,7 +13729,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>434</v>
       </c>
@@ -13760,7 +13761,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>437</v>
       </c>
@@ -13824,7 +13825,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>443</v>
       </c>
@@ -13856,7 +13857,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>446</v>
       </c>
@@ -13888,7 +13889,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>419</v>
       </c>
@@ -13920,7 +13921,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>451</v>
       </c>
@@ -13952,7 +13953,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>454</v>
       </c>
@@ -13984,7 +13985,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>457</v>
       </c>
@@ -14016,7 +14017,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>460</v>
       </c>
@@ -14048,7 +14049,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>463</v>
       </c>
@@ -14080,7 +14081,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>466</v>
       </c>
@@ -14112,7 +14113,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>469</v>
       </c>
@@ -14144,7 +14145,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>472</v>
       </c>
@@ -14176,7 +14177,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>475</v>
       </c>
@@ -14208,7 +14209,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>478</v>
       </c>
@@ -14240,7 +14241,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>481</v>
       </c>
@@ -14272,7 +14273,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>484</v>
       </c>
@@ -14304,7 +14305,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>487</v>
       </c>
@@ -14336,7 +14337,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>490</v>
       </c>
@@ -14368,7 +14369,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>440</v>
       </c>
@@ -14400,7 +14401,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>495</v>
       </c>
@@ -14433,7 +14434,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K121" xr:uid="{9F98F82C-751B-AC43-8CED-A41D0E1F8CA8}"/>
+  <autoFilter ref="A1:K121" xr:uid="{9F98F82C-751B-AC43-8CED-A41D0E1F8CA8}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Reputation and Trust Ratings"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -14442,11 +14449,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3962EE67-A2B1-0B49-9F74-9CC75A10F5DD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="topRight" activeCell="F89" sqref="F6:F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14504,7 +14512,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -14549,7 +14557,7 @@
         <v>blockchain -- UTXO -- N/A -- Nakamoto Consensus (PoW) -- Public</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -14594,7 +14602,7 @@
         <v>blockchain -- UTXO -- N/A -- Nakamoto Consensus (PoW) -- Public</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -14639,7 +14647,7 @@
         <v>blockchain -- UTXO -- installed -- Proof-of-Authority -- Private</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -14729,7 +14737,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW); Tendermint (BFT &amp; PoS) -- Consortium; Private</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -14864,7 +14872,7 @@
         <v>Blockchain -- UTXO -- N/A -- None -- Public; Private</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -14909,7 +14917,7 @@
         <v>blockchain -- UTXO -- N/A -- Nakamoto Consensus (PoW) -- Public</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -14954,7 +14962,7 @@
         <v>blockchain -- UTXO -- N/A -- In-house PoW -- Public</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -14999,7 +15007,7 @@
         <v>blockchain -- UTXO -- N/A -- In-house PoW -- Public</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -15044,7 +15052,7 @@
         <v>blockchain -- account -- N/A -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -15089,7 +15097,7 @@
         <v>blockchain -- UTXO -- N/A -- Nakamoto Consensus (PoW) -- public</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -15134,7 +15142,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Public</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -15179,7 +15187,7 @@
         <v>blockchain -- UTXO -- N/A -- In-house PoW -- Public</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -15224,7 +15232,7 @@
         <v>blockchain -- account -- N/A -- Dagger-Hashimoto (PoW) -- Consortium</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -15269,7 +15277,7 @@
         <v>blockchain -- UTXO -- N/A -- Nakamoto Consensus (PoW) -- Public</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -15314,7 +15322,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -15359,7 +15367,7 @@
         <v>blockchain -- TX Log -- installed -- PBFT -- Private</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -15404,7 +15412,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -15449,7 +15457,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
@@ -15494,7 +15502,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -15584,7 +15592,7 @@
         <v>blockchain -- UTXO -- N/A -- In-house PoW -- public</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -15629,7 +15637,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
@@ -15674,7 +15682,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
@@ -15719,7 +15727,7 @@
         <v>blockchain -- TX Log -- Installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
@@ -15764,7 +15772,7 @@
         <v>blockchain -- account -- N/A -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="160" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
@@ -15809,7 +15817,7 @@
         <v>blockchain -- TX Log -- Installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
@@ -15854,7 +15862,7 @@
         <v>blockchain -- account -- N/A -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -15899,7 +15907,7 @@
         <v>blockchain -- account -- On-chain -- Dagger-Hashimoto (PoW) -- Public</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -15944,7 +15952,7 @@
         <v>blockchain -- TX Log -- Installed -- PBFT -- Private</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -15989,7 +15997,7 @@
         <v>blockchain -- account -- N/A -- Dagger-Hashimoto (PoW) -- Public</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -16034,7 +16042,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Public</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
@@ -16079,7 +16087,7 @@
         <v>Blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Public</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -16124,7 +16132,7 @@
         <v>Blockchain -- UTXO -- installed -- Proof-of-Authority -- Private</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -16169,7 +16177,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>116</v>
       </c>
@@ -16214,7 +16222,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>119</v>
       </c>
@@ -16259,7 +16267,7 @@
         <v>blockchain -- TX Log -- installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
@@ -16304,7 +16312,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Public</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -16349,7 +16357,7 @@
         <v>blockchain -- account -- N/A -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -16394,7 +16402,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Public</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>130</v>
       </c>
@@ -16439,7 +16447,7 @@
         <v>blockchain -- UTXO -- N/A -- Nakamoto Consensus (PoW) -- public</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
@@ -16484,7 +16492,7 @@
         <v>blockchain -- UTXO -- installed -- Proof-of-Authority -- consortium</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>136</v>
       </c>
@@ -16529,7 +16537,7 @@
         <v>blockchain -- account -- Installed -- In-house PoW -- Consortium</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="144" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>139</v>
       </c>
@@ -16619,7 +16627,7 @@
         <v>blockchain -- account -- on-chain -- Proof-of-Trust; Proof-of-Luck; Dagger-Hashimoto (PoW) -- Public; Private</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>145</v>
       </c>
@@ -16664,7 +16672,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="144" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
@@ -16709,7 +16717,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>150</v>
       </c>
@@ -16754,7 +16762,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>152</v>
       </c>
@@ -16799,7 +16807,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>154</v>
       </c>
@@ -16844,7 +16852,7 @@
         <v>blockchain -- TX Log -- installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
@@ -16889,7 +16897,7 @@
         <v>blockchain -- account -- N/A -- In-house PoW -- Consortium</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>160</v>
       </c>
@@ -16934,7 +16942,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>163</v>
       </c>
@@ -16979,7 +16987,7 @@
         <v>blockchain -- UTXO -- N/A -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
@@ -17069,7 +17077,7 @@
         <v>blockchain -- UTXO -- N/A -- In-house PoW -- Public</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>169</v>
       </c>
@@ -17114,7 +17122,7 @@
         <v>blockchain -- UTXO -- N/A -- In-house PoW -- Public</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>172</v>
       </c>
@@ -17159,7 +17167,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>175</v>
       </c>
@@ -17204,7 +17212,7 @@
         <v>blockchain -- TX Log -- installed -- YAC (Crash Tolerant) -- Consortium</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>178</v>
       </c>
@@ -17249,7 +17257,7 @@
         <v>blockchain -- TX Log -- Installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="192" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>180</v>
       </c>
@@ -17294,7 +17302,7 @@
         <v>blockchain -- UTXO -- N/A -- In-house PoW -- Public</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>183</v>
       </c>
@@ -17384,7 +17392,7 @@
         <v>blockchain -- account &amp; UTXO -- on-chain -- PoW+PoS; proof-of-rule -- Public</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>188</v>
       </c>
@@ -17429,7 +17437,7 @@
         <v>blockchain -- account -- N/A -- Dagger-Hashimoto (PoW) -- Public</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>191</v>
       </c>
@@ -17474,7 +17482,7 @@
         <v>blockchain -- UTXO -- N/A -- Proof-of-rule -- Public</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>194</v>
       </c>
@@ -17519,7 +17527,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Public</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>197</v>
       </c>
@@ -17564,7 +17572,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- public</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>200</v>
       </c>
@@ -17609,7 +17617,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- private</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>202</v>
       </c>
@@ -17699,7 +17707,7 @@
         <v>blockchain -- UTXO -- N/A -- In-house PoW -- Public</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>207</v>
       </c>
@@ -17744,7 +17752,7 @@
         <v>blockchain -- UTXO -- N/A -- In-house PoW -- Public</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>209</v>
       </c>
@@ -17789,7 +17797,7 @@
         <v>blockchain -- TX Log -- Installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>212</v>
       </c>
@@ -17834,7 +17842,7 @@
         <v>blockchain -- account -- on-chain -- Tendermint (BFT &amp; PoS) -- Private</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>215</v>
       </c>
@@ -17879,7 +17887,7 @@
         <v>blockchain -- account -- on-chain -- In-house PoW -- Public</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>219</v>
       </c>
@@ -17924,7 +17932,7 @@
         <v>blockchain -- TX Log -- Installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>222</v>
       </c>
@@ -17969,7 +17977,7 @@
         <v>blockchain -- UTXO -- N/A -- PoW+PoS -- Public</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>224</v>
       </c>
@@ -18014,7 +18022,7 @@
         <v>blockchain -- UTXO -- N/A -- In-house PoW -- Public</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>227</v>
       </c>
@@ -18059,7 +18067,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- public</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>230</v>
       </c>
@@ -18104,7 +18112,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- public</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>232</v>
       </c>
@@ -18149,7 +18157,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Public</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="145" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>234</v>
       </c>
@@ -18194,7 +18202,7 @@
         <v>blockchain -- account -- N/A -- Dagger-Hashimoto (PoW) -- Public</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="65" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="65" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
         <v>386</v>
       </c>
@@ -18239,7 +18247,7 @@
         <v>blockchain -- TX Log -- Installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>389</v>
       </c>
@@ -18284,7 +18292,7 @@
         <v>blockchain -- UTXO -- N/A -- In-house PoW -- Public</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>392</v>
       </c>
@@ -18329,7 +18337,7 @@
         <v>blockchain -- UTXO -- Installed -- Tendermint (BFT &amp; PoS) -- Private</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>395</v>
       </c>
@@ -18374,7 +18382,7 @@
         <v>blockchain -- UTXO -- N/A -- Proof-of-Authority -- Private</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>398</v>
       </c>
@@ -18464,7 +18472,7 @@
         <v>Not Given -- Not Given -- Not Given -- Not Given -- Not Given</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>404</v>
       </c>
@@ -18509,7 +18517,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Consortium</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
         <v>407</v>
       </c>
@@ -18554,7 +18562,7 @@
         <v>blockchain -- TX Log -- Installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
         <v>410</v>
       </c>
@@ -18599,7 +18607,7 @@
         <v>Not Given -- Not Given -- Not Given -- Not Given -- Not Given</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>413</v>
       </c>
@@ -18644,7 +18652,7 @@
         <v>Not Given -- Not Given -- Not Given -- Not Given -- Not Given</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>416</v>
       </c>
@@ -18689,7 +18697,7 @@
         <v>Not Given -- Not Given -- Not Given -- Not Given -- Not Given</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
         <v>419</v>
       </c>
@@ -18734,7 +18742,7 @@
         <v>Not Given -- Not Given -- Not Given -- Not Given -- Not Given</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
         <v>422</v>
       </c>
@@ -18779,7 +18787,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- public</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>425</v>
       </c>
@@ -18824,7 +18832,7 @@
         <v>Not Given -- Not Given -- Not Given -- Not Given -- Not Given</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>428</v>
       </c>
@@ -18869,7 +18877,7 @@
         <v>Not Given -- Not Given -- Not Given -- Not Given -- Not Given</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>431</v>
       </c>
@@ -18914,7 +18922,7 @@
         <v>Not Given -- Not Given -- Not Given -- Not Given -- Not Given</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>434</v>
       </c>
@@ -18959,7 +18967,7 @@
         <v>blockchain -- TX Log -- N/A -- Proof-of-Stability (BFT) -- Private</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>437</v>
       </c>
@@ -19004,7 +19012,7 @@
         <v>blockchain -- TX Log -- N/A -- In-house PoW -- Private</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
         <v>440</v>
       </c>
@@ -19049,7 +19057,7 @@
         <v>Not Given -- Not Given -- Not Given -- Not Given -- Not Given</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>443</v>
       </c>
@@ -19094,7 +19102,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Consortium</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>446</v>
       </c>
@@ -19139,7 +19147,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- public</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>419</v>
       </c>
@@ -19184,7 +19192,7 @@
         <v>blockchain -- TX Log -- Installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>451</v>
       </c>
@@ -19229,7 +19237,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>454</v>
       </c>
@@ -19274,7 +19282,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Consortium</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>457</v>
       </c>
@@ -19319,7 +19327,7 @@
         <v>Not Given -- Not Given -- Not Given -- Not Given -- Not Given</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>460</v>
       </c>
@@ -19364,7 +19372,7 @@
         <v>tangle -- TX Log -- N/A -- Tangle -- Public</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>463</v>
       </c>
@@ -19409,7 +19417,7 @@
         <v>tangle -- TX Log -- N/A -- Tangle -- Public</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>466</v>
       </c>
@@ -19454,7 +19462,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Consortium</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>469</v>
       </c>
@@ -19499,7 +19507,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- public</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>472</v>
       </c>
@@ -19544,7 +19552,7 @@
         <v>Not Given -- Not Given -- Not Given -- Not Given -- Not Given</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>475</v>
       </c>
@@ -19589,7 +19597,7 @@
         <v>blockchain -- TX Log -- N/A -- Proof-of-Reputation -- private</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>478</v>
       </c>
@@ -19634,7 +19642,7 @@
         <v>Not Given -- Not Given -- Not Given -- Not Given -- Not Given</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>481</v>
       </c>
@@ -19679,7 +19687,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>484</v>
       </c>
@@ -19724,7 +19732,7 @@
         <v>Not Given -- Not Given -- Not Given -- Not Given -- Not Given</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>487</v>
       </c>
@@ -19769,7 +19777,7 @@
         <v>blockchain -- TX Log -- N/A -- Proof-of-Supply-Chain-Share -- Consortium</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>490</v>
       </c>
@@ -19814,7 +19822,7 @@
         <v>blockchain -- account -- on-chain -- Dagger-Hashimoto (PoW) -- Private</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>440</v>
       </c>
@@ -19859,7 +19867,7 @@
         <v>Not Given -- Not Given -- Not Given -- Not Given -- Not Given</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>495</v>
       </c>
@@ -19906,7 +19914,14 @@
     </row>
     <row r="122" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="F1:M121" xr:uid="{08206A0E-F948-0B41-B028-7BDBA01400CE}"/>
+  <autoFilter ref="F1:M121" xr:uid="{08206A0E-F948-0B41-B028-7BDBA01400CE}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2"/>
+        <filter val="more than 2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20222,7 +20237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DCB22C-FF00-B845-92DB-3CB3C377A5B2}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
